--- a/DI CourseWork Tracker.xlsx
+++ b/DI CourseWork Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teitelbaumsair/Desktop/DI_Bootcamp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CF87E84-EA31-2249-AB40-D89E5024112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDEB40C-BEDD-DE43-A89A-DC1D180DB18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{DF09EDB5-4B81-084B-BE2D-CE7218EF29EC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="538">
   <si>
     <t>Day 1</t>
   </si>
@@ -1652,13 +1652,16 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Working on it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1728,6 +1731,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1764,10 +1773,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFAE200"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFAE200"/>
       <color rgb="FFFFF400"/>
     </mruColors>
   </colors>
@@ -7813,10 +7847,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8E0339-49CE-8344-86CF-4D4F689288E3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7847,7 +7882,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -7859,8 +7894,10 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7869,9 +7906,13 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -7883,9 +7924,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -7897,9 +7942,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -7911,9 +7960,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>46</v>
@@ -7925,8 +7978,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -7935,9 +7990,13 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -7949,9 +8008,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>7</v>
@@ -7963,9 +8026,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -7977,9 +8044,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>60</v>
@@ -7991,9 +8062,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>61</v>
@@ -8005,8 +8080,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -8015,9 +8092,13 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>4</v>
@@ -8029,9 +8110,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>67</v>
@@ -8043,9 +8128,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>7</v>
@@ -8057,9 +8146,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+    <row r="18" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -8071,9 +8164,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+    <row r="19" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>74</v>
@@ -8085,9 +8182,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+    <row r="20" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>75</v>
@@ -8096,12 +8197,16 @@
         <v>11</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>76</v>
@@ -8110,12 +8215,16 @@
         <v>10</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>77</v>
@@ -8127,8 +8236,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
@@ -8137,9 +8248,13 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+    <row r="24" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>4</v>
@@ -8152,8 +8267,12 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>7</v>
@@ -8166,8 +8285,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>76</v>
@@ -8180,8 +8303,12 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
         <v>9</v>
@@ -8193,9 +8320,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+    <row r="28" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
         <v>92</v>
@@ -8207,8 +8338,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
@@ -8217,9 +8350,13 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+    <row r="30" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
         <v>96</v>
@@ -8231,9 +8368,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+    <row r="31" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
         <v>99</v>
@@ -8246,8 +8387,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>100</v>
@@ -8260,8 +8405,12 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>102</v>
@@ -8274,8 +8423,12 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
         <v>104</v>
@@ -8287,9 +8440,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+    <row r="35" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
         <v>105</v>
@@ -8301,9 +8458,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+    <row r="36" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
         <v>106</v>
@@ -8315,8 +8476,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
@@ -8325,11 +8488,13 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>119</v>
       </c>
@@ -8337,8 +8502,10 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
@@ -8347,9 +8514,13 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+    <row r="40" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
         <v>4</v>
@@ -8361,9 +8532,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+    <row r="41" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
         <v>7</v>
@@ -8376,8 +8551,12 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
         <v>9</v>
@@ -8389,9 +8568,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+    <row r="43" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
         <v>129</v>
@@ -8403,8 +8586,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
+    <row r="44" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
@@ -8413,9 +8598,13 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+    <row r="45" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
         <v>133</v>
@@ -8427,9 +8616,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+    <row r="46" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
         <v>4</v>
@@ -8442,8 +8635,12 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
         <v>7</v>
@@ -8456,8 +8653,12 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
         <v>9</v>
@@ -8470,8 +8671,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
         <v>147</v>
@@ -8483,8 +8688,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>13</v>
       </c>
@@ -8493,9 +8700,13 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+    <row r="51" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
         <v>4</v>
@@ -8508,8 +8719,12 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
         <v>160</v>
@@ -8522,8 +8737,12 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
         <v>7</v>
@@ -8536,8 +8755,12 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
         <v>9</v>
@@ -8549,9 +8772,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+    <row r="55" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
         <v>170</v>
@@ -8564,8 +8791,12 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
         <v>171</v>
@@ -8578,8 +8809,12 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
         <v>172</v>
@@ -8591,8 +8826,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
+    <row r="58" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B58" s="1" t="s">
         <v>14</v>
       </c>
@@ -8601,9 +8838,13 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+    <row r="59" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
         <v>4</v>
@@ -8616,8 +8857,12 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
         <v>7</v>
@@ -8630,8 +8875,12 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
         <v>9</v>
@@ -8643,9 +8892,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+    <row r="62" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
         <v>184</v>
@@ -8657,8 +8910,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
+    <row r="63" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B63" s="1" t="s">
         <v>15</v>
       </c>
@@ -8667,9 +8922,13 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+    <row r="64" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
         <v>186</v>
@@ -8681,9 +8940,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+    <row r="65" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
         <v>188</v>
@@ -8695,9 +8958,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+    <row r="66" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
         <v>189</v>
@@ -8710,8 +8977,12 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
         <v>190</v>
@@ -8723,9 +8994,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+    <row r="68" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
         <v>192</v>
@@ -8738,8 +9013,12 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
         <v>193</v>
@@ -8752,8 +9031,12 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
         <v>197</v>
@@ -8766,8 +9049,12 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
         <v>198</v>
@@ -8779,11 +9066,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C72" s="1" t="s">
         <v>201</v>
       </c>
@@ -8791,8 +9080,10 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
+    <row r="73" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="B73" s="1" t="s">
         <v>0</v>
       </c>
@@ -8801,9 +9092,13 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+    <row r="74" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
         <v>4</v>
@@ -8815,9 +9110,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+    <row r="75" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
         <v>204</v>
@@ -8830,8 +9129,12 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
         <v>205</v>
@@ -8843,9 +9146,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+    <row r="77" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
         <v>206</v>
@@ -8857,8 +9164,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
+    <row r="78" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="B78" s="1" t="s">
         <v>2</v>
       </c>
@@ -8868,8 +9177,12 @@
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
         <v>218</v>
@@ -8881,9 +9194,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+    <row r="80" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
         <v>4</v>
@@ -8896,8 +9213,12 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
         <v>9</v>
@@ -8909,9 +9230,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+    <row r="82" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
         <v>231</v>
@@ -8923,8 +9248,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
+    <row r="83" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="B83" s="1" t="s">
         <v>13</v>
       </c>
@@ -8933,9 +9260,13 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+    <row r="84" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
         <v>4</v>
@@ -8948,8 +9279,12 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
         <v>7</v>
@@ -8962,8 +9297,12 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
         <v>237</v>
@@ -8975,9 +9314,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+    <row r="87" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
         <v>242</v>
@@ -8990,8 +9333,12 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
         <v>243</v>
@@ -9003,8 +9350,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
+    <row r="89" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="B89" s="1" t="s">
         <v>14</v>
       </c>
@@ -9013,9 +9362,13 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+    <row r="90" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
         <v>4</v>
@@ -9028,8 +9381,12 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
         <v>7</v>
@@ -9041,9 +9398,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+    <row r="92" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
         <v>248</v>
@@ -9055,8 +9416,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
+    <row r="93" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="B93" s="1" t="s">
         <v>15</v>
       </c>
@@ -9066,8 +9429,12 @@
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
         <v>256</v>
@@ -9079,7 +9446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>266</v>
       </c>
@@ -9091,8 +9458,10 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
+    <row r="96" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="B96" s="1" t="s">
         <v>0</v>
       </c>
@@ -9101,8 +9470,10 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
+    <row r="97" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="B97" s="1" t="s">
         <v>2</v>
       </c>
@@ -9111,9 +9482,13 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+    <row r="98" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>4</v>
@@ -9125,9 +9500,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+    <row r="99" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
         <v>7</v>
@@ -9136,12 +9515,16 @@
         <v>8</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
         <v>9</v>
@@ -9153,8 +9536,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
+    <row r="101" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="B101" s="1" t="s">
         <v>13</v>
       </c>
@@ -9163,9 +9548,13 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+    <row r="102" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
         <v>4</v>
@@ -9178,8 +9567,12 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
         <v>7</v>
@@ -9192,8 +9585,12 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="A104" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
         <v>9</v>
@@ -9205,9 +9602,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+    <row r="105" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
         <v>280</v>
@@ -9219,8 +9620,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
+    <row r="106" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="B106" s="1" t="s">
         <v>14</v>
       </c>
@@ -9229,9 +9632,13 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+    <row r="107" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
         <v>4</v>
@@ -9244,8 +9651,12 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
         <v>7</v>
@@ -9258,8 +9669,12 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
         <v>9</v>
@@ -9271,9 +9686,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+    <row r="110" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
         <v>286</v>
@@ -9285,8 +9704,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
+    <row r="111" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="B111" s="1" t="s">
         <v>15</v>
       </c>
@@ -9295,9 +9716,13 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+    <row r="112" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
         <v>290</v>
@@ -9309,9 +9734,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+    <row r="113" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
         <v>291</v>
@@ -9323,9 +9752,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+    <row r="114" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
         <v>292</v>
@@ -9337,9 +9770,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+    <row r="115" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
         <v>293</v>
@@ -9351,11 +9788,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B116" s="1"/>
+      <c r="B116" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C116" s="1" t="s">
         <v>303</v>
       </c>
@@ -9363,8 +9802,10 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A117" s="1"/>
+    <row r="117" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="B117" s="1" t="s">
         <v>0</v>
       </c>
@@ -9373,9 +9814,13 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+    <row r="118" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
         <v>4</v>
@@ -9388,8 +9833,12 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
         <v>7</v>
@@ -9402,8 +9851,12 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
         <v>9</v>
@@ -9415,9 +9868,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+    <row r="121" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
         <v>305</v>
@@ -9429,8 +9886,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A122" s="1"/>
+    <row r="122" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="B122" s="1" t="s">
         <v>2</v>
       </c>
@@ -9439,9 +9898,13 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+    <row r="123" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
         <v>4</v>
@@ -9454,8 +9917,12 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1" t="s">
         <v>7</v>
@@ -9468,8 +9935,12 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
         <v>9</v>
@@ -9481,9 +9952,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+    <row r="126" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
         <v>312</v>
@@ -9495,8 +9970,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A127" s="1"/>
+    <row r="127" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="B127" s="1" t="s">
         <v>13</v>
       </c>
@@ -9506,8 +9983,12 @@
       <c r="F127" s="1"/>
     </row>
     <row r="128" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
         <v>4</v>
@@ -9519,9 +10000,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+    <row r="129" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1" t="s">
         <v>7</v>
@@ -9533,9 +10018,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+    <row r="130" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1" t="s">
         <v>9</v>
@@ -9544,12 +10033,16 @@
         <v>10</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
         <v>318</v>
@@ -9561,8 +10054,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A132" s="1"/>
+    <row r="132" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="B132" s="1" t="s">
         <v>14</v>
       </c>
@@ -9571,9 +10066,13 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+    <row r="133" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1" t="s">
         <v>323</v>
@@ -9585,9 +10084,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+    <row r="134" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1" t="s">
         <v>324</v>
@@ -9599,9 +10102,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+    <row r="135" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1" t="s">
         <v>325</v>
@@ -9610,19 +10117,25 @@
         <v>16</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A137" s="1"/>
+    <row r="137" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="B137" s="1" t="s">
         <v>15</v>
       </c>
@@ -9631,9 +10144,13 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+    <row r="138" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1" t="s">
         <v>327</v>
@@ -9645,9 +10162,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+    <row r="139" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
         <v>321</v>
@@ -9659,11 +10180,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B140" s="1"/>
+      <c r="B140" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C140" s="1" t="s">
         <v>338</v>
       </c>
@@ -9671,8 +10194,10 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A141" s="1"/>
+    <row r="141" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="B141" s="1" t="s">
         <v>0</v>
       </c>
@@ -9681,9 +10206,13 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+    <row r="142" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1" t="s">
         <v>4</v>
@@ -9696,8 +10225,12 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+      <c r="A143" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
         <v>7</v>
@@ -9710,8 +10243,12 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+      <c r="A144" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
         <v>9</v>
@@ -9723,9 +10260,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+    <row r="145" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
         <v>342</v>
@@ -9737,8 +10278,10 @@
         <v>341</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A146" s="1"/>
+    <row r="146" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="B146" s="1" t="s">
         <v>2</v>
       </c>
@@ -9747,9 +10290,13 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+    <row r="147" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
         <v>4</v>
@@ -9762,8 +10309,12 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+      <c r="A148" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
         <v>7</v>
@@ -9776,8 +10327,12 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+      <c r="A149" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
         <v>9</v>
@@ -9789,9 +10344,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+    <row r="150" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
         <v>349</v>
@@ -9803,8 +10362,10 @@
         <v>341</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A151" s="1"/>
+    <row r="151" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="B151" s="1" t="s">
         <v>13</v>
       </c>
@@ -9813,9 +10374,13 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+    <row r="152" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
         <v>4</v>
@@ -9828,8 +10393,12 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+      <c r="A153" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
         <v>7</v>
@@ -9842,8 +10411,12 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+      <c r="A154" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
         <v>9</v>
@@ -9855,9 +10428,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+    <row r="155" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
         <v>356</v>
@@ -9865,12 +10442,14 @@
       <c r="E155" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F155" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A156" s="1"/>
+      <c r="F155" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="B156" s="1" t="s">
         <v>14</v>
       </c>
@@ -9879,9 +10458,13 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+    <row r="157" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
         <v>4</v>
@@ -9889,13 +10472,17 @@
       <c r="E157" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F157" s="7" t="s">
-        <v>6</v>
+      <c r="F157" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+      <c r="A158" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
         <v>7</v>
@@ -9908,8 +10495,12 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+      <c r="A159" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1" t="s">
         <v>9</v>
@@ -9921,9 +10512,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+    <row r="160" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
         <v>363</v>
@@ -9932,11 +10527,13 @@
         <v>11</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A161" s="1"/>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="B161" s="1" t="s">
         <v>15</v>
       </c>
@@ -9945,9 +10542,13 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+    <row r="162" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
         <v>338</v>
@@ -9956,20 +10557,28 @@
         <v>5</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+      <c r="A164" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1" t="s">
         <v>372</v>
@@ -9978,12 +10587,16 @@
         <v>11</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>6</v>
+        <v>341</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+      <c r="A165" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
         <v>373</v>
@@ -9992,10 +10605,10 @@
         <v>16</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>380</v>
       </c>
@@ -10007,8 +10620,10 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A167" s="1"/>
+    <row r="167" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="B167" s="1" t="s">
         <v>0</v>
       </c>
@@ -10018,8 +10633,12 @@
       <c r="F167" s="1"/>
     </row>
     <row r="168" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+      <c r="A168" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1" t="s">
         <v>4</v>
@@ -10028,12 +10647,16 @@
         <v>5</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>6</v>
+        <v>341</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+      <c r="A169" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1" t="s">
         <v>7</v>
@@ -10046,8 +10669,12 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
         <v>9</v>
@@ -10060,8 +10687,12 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+      <c r="A171" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
         <v>383</v>
@@ -10073,8 +10704,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A172" s="1"/>
+    <row r="172" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="B172" s="1" t="s">
         <v>2</v>
       </c>
@@ -10084,8 +10717,12 @@
       <c r="F172" s="1"/>
     </row>
     <row r="173" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+      <c r="A173" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1" t="s">
         <v>4</v>
@@ -10098,8 +10735,12 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+      <c r="A174" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1" t="s">
         <v>7</v>
@@ -10112,8 +10753,12 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+      <c r="A175" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1" t="s">
         <v>9</v>
@@ -10126,8 +10771,12 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+      <c r="A176" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1" t="s">
         <v>390</v>
@@ -10139,8 +10788,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A177" s="1"/>
+    <row r="177" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="B177" s="1" t="s">
         <v>13</v>
       </c>
@@ -10149,17 +10800,25 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+    <row r="178" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+      <c r="A179" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1" t="s">
         <v>395</v>
@@ -10172,8 +10831,12 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
+      <c r="A180" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1" t="s">
         <v>396</v>
@@ -10186,8 +10849,12 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+      <c r="A181" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1" t="s">
         <v>397</v>
@@ -10199,8 +10866,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A182" s="1"/>
+    <row r="182" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="B182" s="1" t="s">
         <v>14</v>
       </c>
@@ -10210,8 +10879,12 @@
       <c r="F182" s="1"/>
     </row>
     <row r="183" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
+      <c r="A183" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1" t="s">
         <v>7</v>
@@ -10224,8 +10897,12 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+      <c r="A184" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1" t="s">
         <v>4</v>
@@ -10238,8 +10915,12 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+      <c r="A185" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1" t="s">
         <v>399</v>
@@ -10251,8 +10932,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A186" s="1"/>
+    <row r="186" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="B186" s="1" t="s">
         <v>15</v>
       </c>
@@ -10262,8 +10945,12 @@
       <c r="F186" s="1"/>
     </row>
     <row r="187" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+      <c r="A187" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1" t="s">
         <v>4</v>
@@ -10276,8 +10963,12 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+      <c r="A188" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1" t="s">
         <v>405</v>
@@ -10290,8 +10981,12 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+      <c r="A189" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
         <v>7</v>
@@ -10304,8 +10999,12 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+      <c r="A190" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1" t="s">
         <v>9</v>
@@ -10317,7 +11016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>427</v>
       </c>
@@ -10329,8 +11028,10 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A192" s="1"/>
+    <row r="192" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="B192" s="1" t="s">
         <v>2</v>
       </c>
@@ -10340,8 +11041,12 @@
       <c r="F192" s="1"/>
     </row>
     <row r="193" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+      <c r="A193" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1" t="s">
         <v>4</v>
@@ -10354,8 +11059,12 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+      <c r="A194" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1" t="s">
         <v>7</v>
@@ -10368,8 +11077,12 @@
       </c>
     </row>
     <row r="195" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+      <c r="A195" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1" t="s">
         <v>9</v>
@@ -10382,8 +11095,12 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+      <c r="A196" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1" t="s">
         <v>433</v>
@@ -10395,8 +11112,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A197" s="1"/>
+    <row r="197" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="B197" s="1" t="s">
         <v>13</v>
       </c>
@@ -10406,8 +11125,12 @@
       <c r="F197" s="1"/>
     </row>
     <row r="198" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
+      <c r="A198" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1" t="s">
         <v>4</v>
@@ -10420,8 +11143,12 @@
       </c>
     </row>
     <row r="199" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
+      <c r="A199" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1" t="s">
         <v>437</v>
@@ -10433,8 +11160,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A200" s="1"/>
+    <row r="200" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="B200" s="1" t="s">
         <v>14</v>
       </c>
@@ -10444,8 +11173,12 @@
       <c r="F200" s="1"/>
     </row>
     <row r="201" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
+      <c r="A201" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1" t="s">
         <v>441</v>
@@ -10458,8 +11191,12 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
+      <c r="A202" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1" t="s">
         <v>442</v>
@@ -10472,8 +11209,12 @@
       </c>
     </row>
     <row r="203" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
+      <c r="A203" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1" t="s">
         <v>443</v>
@@ -10485,7 +11226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>451</v>
       </c>
@@ -10497,8 +11238,10 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
     </row>
-    <row r="205" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A205" s="1"/>
+    <row r="205" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>451</v>
+      </c>
       <c r="B205" s="1" t="s">
         <v>0</v>
       </c>
@@ -10508,8 +11251,12 @@
       <c r="F205" s="1"/>
     </row>
     <row r="206" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
+      <c r="A206" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1" t="s">
         <v>4</v>
@@ -10522,8 +11269,12 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
+      <c r="A207" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1" t="s">
         <v>7</v>
@@ -10536,8 +11287,12 @@
       </c>
     </row>
     <row r="208" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
+      <c r="A208" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1" t="s">
         <v>9</v>
@@ -10550,8 +11305,12 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
+      <c r="A209" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1" t="s">
         <v>454</v>
@@ -10563,8 +11322,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A210" s="1"/>
+    <row r="210" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>451</v>
+      </c>
       <c r="B210" s="1" t="s">
         <v>2</v>
       </c>
@@ -10576,8 +11337,12 @@
       <c r="F210" s="1"/>
     </row>
     <row r="211" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
+      <c r="A211" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1" t="s">
         <v>4</v>
@@ -10590,8 +11355,12 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
+      <c r="A212" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
         <v>7</v>
@@ -10604,8 +11373,12 @@
       </c>
     </row>
     <row r="213" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
+      <c r="A213" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1" t="s">
         <v>9</v>
@@ -10618,8 +11391,12 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+      <c r="A214" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1" t="s">
         <v>464</v>
@@ -10631,8 +11408,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A215" s="1"/>
+    <row r="215" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>451</v>
+      </c>
       <c r="B215" s="1" t="s">
         <v>13</v>
       </c>
@@ -10644,8 +11423,12 @@
       <c r="F215" s="1"/>
     </row>
     <row r="216" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
+      <c r="A216" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
         <v>4</v>
@@ -10658,8 +11441,12 @@
       </c>
     </row>
     <row r="217" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+      <c r="A217" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
         <v>7</v>
@@ -10672,8 +11459,12 @@
       </c>
     </row>
     <row r="218" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
+      <c r="A218" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1" t="s">
         <v>9</v>
@@ -10686,8 +11477,12 @@
       </c>
     </row>
     <row r="219" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
+      <c r="A219" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1" t="s">
         <v>469</v>
@@ -10699,8 +11494,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A220" s="1"/>
+    <row r="220" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>451</v>
+      </c>
       <c r="B220" s="1" t="s">
         <v>14</v>
       </c>
@@ -10712,8 +11509,12 @@
       <c r="F220" s="1"/>
     </row>
     <row r="221" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
+      <c r="A221" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1" t="s">
         <v>4</v>
@@ -10726,8 +11527,12 @@
       </c>
     </row>
     <row r="222" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
+      <c r="A222" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1" t="s">
         <v>7</v>
@@ -10740,8 +11545,12 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
+      <c r="A223" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
         <v>9</v>
@@ -10754,8 +11563,12 @@
       </c>
     </row>
     <row r="224" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
+      <c r="A224" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1" t="s">
         <v>473</v>
@@ -10767,8 +11580,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A225" s="1"/>
+    <row r="225" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>451</v>
+      </c>
       <c r="B225" s="1" t="s">
         <v>15</v>
       </c>
@@ -10780,8 +11595,12 @@
       <c r="F225" s="1"/>
     </row>
     <row r="226" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
+      <c r="A226" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1" t="s">
         <v>477</v>
@@ -10794,8 +11613,12 @@
       </c>
     </row>
     <row r="227" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
+      <c r="A227" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1" t="s">
         <v>478</v>
@@ -10808,8 +11631,12 @@
       </c>
     </row>
     <row r="228" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
+      <c r="A228" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
         <v>479</v>
@@ -10822,8 +11649,12 @@
       </c>
     </row>
     <row r="229" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
+      <c r="A229" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
         <v>480</v>
@@ -10835,7 +11666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>484</v>
       </c>
@@ -10847,8 +11678,10 @@
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
     </row>
-    <row r="231" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A231" s="1"/>
+    <row r="231" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="B231" s="1" t="s">
         <v>0</v>
       </c>
@@ -10860,8 +11693,12 @@
       <c r="F231" s="1"/>
     </row>
     <row r="232" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
+      <c r="A232" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
         <v>4</v>
@@ -10874,8 +11711,12 @@
       </c>
     </row>
     <row r="233" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
+      <c r="A233" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1" t="s">
         <v>7</v>
@@ -10888,8 +11729,12 @@
       </c>
     </row>
     <row r="234" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
+      <c r="A234" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1" t="s">
         <v>9</v>
@@ -10902,8 +11747,12 @@
       </c>
     </row>
     <row r="235" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
+      <c r="A235" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1" t="s">
         <v>486</v>
@@ -10915,8 +11764,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A236" s="1"/>
+    <row r="236" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="B236" s="1" t="s">
         <v>2</v>
       </c>
@@ -10928,8 +11779,12 @@
       <c r="F236" s="1"/>
     </row>
     <row r="237" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
+      <c r="A237" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C237" s="1"/>
       <c r="D237" s="1" t="s">
         <v>4</v>
@@ -10942,8 +11797,12 @@
       </c>
     </row>
     <row r="238" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
+      <c r="A238" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1" t="s">
         <v>7</v>
@@ -10956,8 +11815,12 @@
       </c>
     </row>
     <row r="239" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
+      <c r="A239" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1" t="s">
         <v>9</v>
@@ -10970,8 +11833,12 @@
       </c>
     </row>
     <row r="240" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
+      <c r="A240" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C240" s="1"/>
       <c r="D240" s="1" t="s">
         <v>490</v>
@@ -10983,8 +11850,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A241" s="1"/>
+    <row r="241" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="B241" s="1" t="s">
         <v>13</v>
       </c>
@@ -10996,8 +11865,12 @@
       <c r="F241" s="1"/>
     </row>
     <row r="242" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
+      <c r="A242" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1" t="s">
         <v>493</v>
@@ -11010,8 +11883,12 @@
       </c>
     </row>
     <row r="243" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
+      <c r="A243" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C243" s="1"/>
       <c r="D243" s="1" t="s">
         <v>4</v>
@@ -11023,8 +11900,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A244" s="1"/>
+    <row r="244" spans="1:6" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="B244" s="1" t="s">
         <v>14</v>
       </c>
@@ -11036,8 +11915,12 @@
       <c r="F244" s="1"/>
     </row>
     <row r="245" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
+      <c r="A245" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C245" s="1"/>
       <c r="D245" s="1" t="s">
         <v>498</v>
@@ -11050,8 +11933,12 @@
       </c>
     </row>
     <row r="246" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
+      <c r="A246" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C246" s="1"/>
       <c r="D246" s="1" t="s">
         <v>499</v>
@@ -11064,8 +11951,12 @@
       </c>
     </row>
     <row r="247" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
+      <c r="A247" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C247" s="1"/>
       <c r="D247" s="1" t="s">
         <v>500</v>
@@ -11078,8 +11969,12 @@
       </c>
     </row>
     <row r="248" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
+      <c r="A248" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C248" s="1"/>
       <c r="D248" s="1" t="s">
         <v>501</v>
@@ -11092,7 +11987,29 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F248" xr:uid="{7D8E0339-49CE-8344-86CF-4D4F689288E3}"/>
+  <autoFilter ref="A1:F248" xr:uid="{7D8E0339-49CE-8344-86CF-4D4F689288E3}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Not Completed"/>
+        <filter val="NOT SUBMITTED"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Not Completed">
+      <formula>NOT(ISERROR(SEARCH("Not Completed",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Not Submitted">
+      <formula>NOT(ISERROR(SEARCH("Not Submitted",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>